--- a/Tipos de clientes/PLANTILLA-CUSTOMER-PERSONA.xlsx
+++ b/Tipos de clientes/PLANTILLA-CUSTOMER-PERSONA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CP 1" sheetId="4" r:id="rId1"/>
@@ -339,12 +339,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,17 +369,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -442,7 +442,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94F897B-4375-4A73-BF04-381C695C09EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C94F897B-4375-4A73-BF04-381C695C09EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -486,7 +486,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94DD580-B6F4-4E45-B919-34B32D4237BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94DD580-B6F4-4E45-B919-34B32D4237BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -552,7 +552,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADE5934-2F73-4BEB-8296-DF690F96A219}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CADE5934-2F73-4BEB-8296-DF690F96A219}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +596,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869DB54E-462A-43A6-B32A-AAB4A30704AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{869DB54E-462A-43A6-B32A-AAB4A30704AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:K5"/>
     </sheetView>
   </sheetViews>
@@ -978,80 +978,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1060,62 +1060,62 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1124,18 +1124,18 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1144,18 +1144,18 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1164,16 +1164,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1182,16 +1182,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1200,10 +1200,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1242,12 +1242,12 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1256,18 +1256,18 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1276,18 +1276,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1296,20 +1296,20 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1318,16 +1318,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1336,16 +1336,16 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1354,16 +1354,16 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1372,68 +1372,68 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -1441,12 +1441,12 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1459,12 +1459,12 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1472,195 +1472,209 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="M22:P29"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F29:K41"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="A34:D41"/>
+    <mergeCell ref="M34:P41"/>
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="A8:D9"/>
@@ -1677,20 +1691,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A20:D21"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="M22:P29"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F29:K41"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="M32:P33"/>
-    <mergeCell ref="A34:D41"/>
-    <mergeCell ref="M34:P41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:P17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1712,80 +1712,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1794,62 +1794,62 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1858,16 +1858,16 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1876,16 +1876,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1894,16 +1894,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1912,16 +1912,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1930,10 +1930,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1972,12 +1972,12 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1986,18 +1986,18 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2006,18 +2006,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2026,18 +2026,18 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2046,16 +2046,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2064,16 +2064,16 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2082,16 +2082,16 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2100,68 +2100,68 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -2169,12 +2169,12 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2187,12 +2187,12 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2200,209 +2200,200 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F3:K5"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="F8:K9"/>
-    <mergeCell ref="M8:P9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="M10:P17"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:K12"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A34:D41"/>
+    <mergeCell ref="F29:K41"/>
+    <mergeCell ref="M34:P41"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="M32:P33"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="A22:D22"/>
@@ -2415,11 +2406,20 @@
     <mergeCell ref="F27:K28"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A34:D41"/>
-    <mergeCell ref="F29:K41"/>
-    <mergeCell ref="M34:P41"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="M10:P17"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:K12"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F3:K5"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="F8:K9"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Tipos de clientes/PLANTILLA-CUSTOMER-PERSONA.xlsx
+++ b/Tipos de clientes/PLANTILLA-CUSTOMER-PERSONA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CP 1" sheetId="4" r:id="rId1"/>
@@ -339,8 +339,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,22 +378,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +442,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C94F897B-4375-4A73-BF04-381C695C09EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94F897B-4375-4A73-BF04-381C695C09EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -486,7 +486,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A94DD580-B6F4-4E45-B919-34B32D4237BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94DD580-B6F4-4E45-B919-34B32D4237BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -552,7 +552,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CADE5934-2F73-4BEB-8296-DF690F96A219}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADE5934-2F73-4BEB-8296-DF690F96A219}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +596,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{869DB54E-462A-43A6-B32A-AAB4A30704AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869DB54E-462A-43A6-B32A-AAB4A30704AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:K5"/>
     </sheetView>
   </sheetViews>
@@ -978,80 +978,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1060,62 +1060,62 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1124,18 +1124,18 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1144,18 +1144,18 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1164,16 +1164,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1182,16 +1182,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1200,10 +1200,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1242,12 +1242,12 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1256,18 +1256,18 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1276,18 +1276,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1296,20 +1296,20 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1318,16 +1318,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1336,16 +1336,16 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1354,16 +1354,16 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1372,68 +1372,68 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -1441,12 +1441,12 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -1459,12 +1459,12 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1472,209 +1472,195 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="14" t="s">
+      <c r="M34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="M22:P29"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="F27:K28"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="F29:K41"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="M32:P33"/>
-    <mergeCell ref="A34:D41"/>
-    <mergeCell ref="M34:P41"/>
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="F3:K5"/>
     <mergeCell ref="A8:D9"/>
@@ -1691,6 +1677,20 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A20:D21"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="M22:P29"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F27:K28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="F29:K41"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="A34:D41"/>
+    <mergeCell ref="M34:P41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -1702,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
@@ -1712,80 +1712,80 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1794,62 +1794,62 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1858,16 +1858,16 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1876,16 +1876,16 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1894,16 +1894,16 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1912,16 +1912,16 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1930,10 +1930,10 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -1972,12 +1972,12 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1986,18 +1986,18 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2006,18 +2006,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2026,18 +2026,18 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2046,16 +2046,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2064,16 +2064,16 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2082,16 +2082,16 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2100,68 +2100,68 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
@@ -2169,12 +2169,12 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -2187,12 +2187,12 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -2200,200 +2200,209 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="15" t="s">
+      <c r="M34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A34:D41"/>
-    <mergeCell ref="F29:K41"/>
-    <mergeCell ref="M34:P41"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="M32:P33"/>
+    <mergeCell ref="F3:K5"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="F8:K9"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="M10:P17"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:K12"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="M20:P21"/>
     <mergeCell ref="A22:D22"/>
@@ -2406,20 +2415,11 @@
     <mergeCell ref="F27:K28"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="M10:P17"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:K12"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F3:K5"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="F8:K9"/>
-    <mergeCell ref="M8:P9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A34:D41"/>
+    <mergeCell ref="F29:K41"/>
+    <mergeCell ref="M34:P41"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="M32:P33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Tipos de clientes/PLANTILLA-CUSTOMER-PERSONA.xlsx
+++ b/Tipos de clientes/PLANTILLA-CUSTOMER-PERSONA.xlsx
@@ -966,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:K5"/>
     </sheetView>
   </sheetViews>
